--- a/team_specific_matrix/Evansville_A.xlsx
+++ b/team_specific_matrix/Evansville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2258064516129032</v>
+        <v>0.2178571428571429</v>
       </c>
       <c r="C2">
-        <v>0.4930875576036866</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009216589861751152</v>
+        <v>0.01071428571428571</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1797235023041475</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09216589861751152</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008403361344537815</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C3">
-        <v>0.02521008403361345</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01680672268907563</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7478991596638656</v>
+        <v>0.743421052631579</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2016806722689076</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6428571428571429</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3571428571428572</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02259887005649718</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01694915254237288</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06779661016949153</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2429378531073446</v>
+        <v>0.247787610619469</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.192090395480226</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="R6">
-        <v>0.0847457627118644</v>
+        <v>0.1017699115044248</v>
       </c>
       <c r="S6">
-        <v>0.3728813559322034</v>
+        <v>0.3451327433628318</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09230769230769231</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02307692307692308</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="F7">
-        <v>0.05384615384615385</v>
+        <v>0.04458598726114649</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1076923076923077</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1692307692307692</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="R7">
-        <v>0.09230769230769231</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="S7">
-        <v>0.4615384615384616</v>
+        <v>0.4331210191082803</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08791208791208792</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.02036199095022624</v>
       </c>
       <c r="E8">
-        <v>0.002747252747252747</v>
+        <v>0.002262443438914027</v>
       </c>
       <c r="F8">
-        <v>0.04945054945054945</v>
+        <v>0.05656108597285068</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08791208791208792</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01373626373626374</v>
+        <v>0.01131221719457014</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1730769230769231</v>
+        <v>0.1855203619909502</v>
       </c>
       <c r="R8">
-        <v>0.09615384615384616</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S8">
-        <v>0.4697802197802198</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09137055837563451</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01522842639593909</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="E9">
-        <v>0.005076142131979695</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="F9">
-        <v>0.05583756345177665</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08629441624365482</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1725888324873096</v>
+        <v>0.2008032128514056</v>
       </c>
       <c r="R9">
-        <v>0.07614213197969544</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="S9">
-        <v>0.4974619289340101</v>
+        <v>0.4779116465863454</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.103448275862069</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01253918495297806</v>
+        <v>0.0134493670886076</v>
       </c>
       <c r="E10">
-        <v>0.001044932079414838</v>
+        <v>0.0007911392405063291</v>
       </c>
       <c r="F10">
-        <v>0.07419017763845349</v>
+        <v>0.07041139240506329</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09195402298850575</v>
+        <v>0.09731012658227849</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01880877742946709</v>
+        <v>0.01977848101265823</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2340647857889237</v>
+        <v>0.245253164556962</v>
       </c>
       <c r="R10">
-        <v>0.07732497387669801</v>
+        <v>0.07832278481012658</v>
       </c>
       <c r="S10">
-        <v>0.3866248693834901</v>
+        <v>0.3734177215189873</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.005</v>
+        <v>0.00390625</v>
       </c>
       <c r="G11">
         <v>0.125</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.095</v>
+        <v>0.11328125</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.19921875</v>
       </c>
       <c r="L11">
-        <v>0.5649999999999999</v>
+        <v>0.55078125</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7948717948717948</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1025641025641026</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="K12">
-        <v>0.03418803418803419</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="L12">
-        <v>0.04273504273504274</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.16</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0303030303030303</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1515151515151515</v>
+        <v>0.152073732718894</v>
       </c>
       <c r="I15">
-        <v>0.09696969696969697</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="J15">
-        <v>0.3515151515151515</v>
+        <v>0.3686635944700461</v>
       </c>
       <c r="K15">
-        <v>0.04848484848484848</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006060606060606061</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05454545454545454</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2606060606060606</v>
+        <v>0.271889400921659</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1571428571428571</v>
+        <v>0.138121546961326</v>
       </c>
       <c r="I16">
-        <v>0.09285714285714286</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="J16">
-        <v>0.45</v>
+        <v>0.4751381215469613</v>
       </c>
       <c r="K16">
-        <v>0.07857142857142857</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02142857142857143</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="N16">
-        <v>0.007142857142857143</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="O16">
-        <v>0.05</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09285714285714286</v>
+        <v>0.09392265193370165</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01861702127659574</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1861702127659574</v>
+        <v>0.1695906432748538</v>
       </c>
       <c r="I17">
-        <v>0.1063829787234043</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J17">
-        <v>0.4361702127659575</v>
+        <v>0.442495126705653</v>
       </c>
       <c r="K17">
-        <v>0.06648936170212766</v>
+        <v>0.0682261208576998</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01329787234042553</v>
+        <v>0.009746588693957114</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07446808510638298</v>
+        <v>0.07797270955165692</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09840425531914894</v>
+        <v>0.09746588693957114</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04081632653061224</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1496598639455782</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="I18">
-        <v>0.1156462585034014</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="J18">
-        <v>0.4149659863945578</v>
+        <v>0.4148936170212766</v>
       </c>
       <c r="K18">
-        <v>0.1020408163265306</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02040816326530612</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N18">
-        <v>0.006802721088435374</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="O18">
-        <v>0.06802721088435375</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08163265306122448</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01160541586073501</v>
+        <v>0.01413982717989002</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.218568665377176</v>
+        <v>0.213668499607227</v>
       </c>
       <c r="I19">
-        <v>0.1073500967117988</v>
+        <v>0.1060487038491752</v>
       </c>
       <c r="J19">
-        <v>0.3800773694390716</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="K19">
-        <v>0.08994197292069632</v>
+        <v>0.09112333071484682</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01450676982591876</v>
+        <v>0.01178318931657502</v>
       </c>
       <c r="N19">
-        <v>0.0009671179883945841</v>
+        <v>0.0007855459544383347</v>
       </c>
       <c r="O19">
-        <v>0.06479690522243714</v>
+        <v>0.06991358994501179</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1121856866537718</v>
+        <v>0.1044776119402985</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Evansville_A.xlsx
+++ b/team_specific_matrix/Evansville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2178571428571429</v>
+        <v>0.2114093959731544</v>
       </c>
       <c r="C2">
-        <v>0.4928571428571429</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01071428571428571</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1785714285714286</v>
+        <v>0.1711409395973154</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.09731543624161074</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0131578947368421</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C3">
-        <v>0.03289473684210526</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02631578947368421</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.743421052631579</v>
+        <v>0.7530120481927711</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1842105263157895</v>
+        <v>0.1807228915662651</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6486486486486487</v>
+        <v>0.65</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3513513513513514</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03097345132743363</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01327433628318584</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="F6">
-        <v>0.06194690265486726</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.247787610619469</v>
+        <v>0.2408163265306122</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004424778761061947</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1946902654867257</v>
+        <v>0.1918367346938775</v>
       </c>
       <c r="R6">
-        <v>0.1017699115044248</v>
+        <v>0.09387755102040816</v>
       </c>
       <c r="S6">
-        <v>0.3451327433628318</v>
+        <v>0.3591836734693877</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09554140127388536</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02547770700636943</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E7">
-        <v>0.006369426751592357</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="F7">
-        <v>0.04458598726114649</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1273885350318471</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006369426751592357</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.178343949044586</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R7">
-        <v>0.08280254777070063</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="S7">
-        <v>0.4331210191082803</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08823529411764706</v>
+        <v>0.09188034188034189</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02036199095022624</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E8">
-        <v>0.002262443438914027</v>
+        <v>0.002136752136752137</v>
       </c>
       <c r="F8">
-        <v>0.05656108597285068</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08597285067873303</v>
+        <v>0.0811965811965812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01131221719457014</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1855203619909502</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="R8">
-        <v>0.08823529411764706</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="S8">
-        <v>0.4615384615384616</v>
+        <v>0.4636752136752137</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1004016064257028</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02008032128514056</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="E9">
-        <v>0.004016064257028112</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="F9">
-        <v>0.05220883534136546</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07630522088353414</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2008032128514056</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.06827309236947791</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="S9">
-        <v>0.4779116465863454</v>
+        <v>0.4851851851851852</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1012658227848101</v>
+        <v>0.1026022304832714</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0134493670886076</v>
+        <v>0.01338289962825279</v>
       </c>
       <c r="E10">
-        <v>0.0007911392405063291</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="F10">
-        <v>0.07041139240506329</v>
+        <v>0.07211895910780669</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09731012658227849</v>
+        <v>0.09814126394052045</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01977848101265823</v>
+        <v>0.02007434944237918</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.245253164556962</v>
+        <v>0.2423791821561338</v>
       </c>
       <c r="R10">
-        <v>0.07832278481012658</v>
+        <v>0.07732342007434945</v>
       </c>
       <c r="S10">
-        <v>0.3734177215189873</v>
+        <v>0.3732342007434944</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00390625</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="G11">
-        <v>0.125</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.11328125</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="K11">
-        <v>0.19921875</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="L11">
-        <v>0.55078125</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0078125</v>
+        <v>0.007407407407407408</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7533333333333333</v>
+        <v>0.7423312883435583</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1466666666666667</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="K12">
-        <v>0.02666666666666667</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="L12">
-        <v>0.05333333333333334</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02</v>
+        <v>0.01840490797546012</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8148148148148148</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1481481481481481</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03703703703703703</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02304147465437788</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.152073732718894</v>
+        <v>0.1601731601731602</v>
       </c>
       <c r="I15">
-        <v>0.09216589861751152</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="J15">
-        <v>0.3686635944700461</v>
+        <v>0.3593073593073593</v>
       </c>
       <c r="K15">
-        <v>0.04147465437788019</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004608294930875576</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04608294930875576</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.271889400921659</v>
+        <v>0.2683982683982684</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03867403314917127</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.138121546961326</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="I16">
-        <v>0.08287292817679558</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="J16">
-        <v>0.4751381215469613</v>
+        <v>0.4744897959183674</v>
       </c>
       <c r="K16">
-        <v>0.08839779005524862</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02209944751381215</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N16">
-        <v>0.005524861878453038</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="O16">
-        <v>0.05524861878453038</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09392265193370165</v>
+        <v>0.08673469387755102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02339181286549707</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1695906432748538</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="I17">
-        <v>0.1111111111111111</v>
+        <v>0.1141804788213628</v>
       </c>
       <c r="J17">
-        <v>0.442495126705653</v>
+        <v>0.4475138121546962</v>
       </c>
       <c r="K17">
-        <v>0.0682261208576998</v>
+        <v>0.06998158379373849</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009746588693957114</v>
+        <v>0.009208103130755065</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07797270955165692</v>
+        <v>0.07366482504604052</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09746588693957114</v>
+        <v>0.09760589318600368</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0425531914893617</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1436170212765958</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="I18">
-        <v>0.1170212765957447</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="J18">
-        <v>0.4148936170212766</v>
+        <v>0.4175257731958763</v>
       </c>
       <c r="K18">
-        <v>0.1117021276595745</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02127659574468085</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
-        <v>0.005319148936170213</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="O18">
-        <v>0.05851063829787234</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0851063829787234</v>
+        <v>0.08762886597938144</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01413982717989002</v>
+        <v>0.01466275659824047</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.213668499607227</v>
+        <v>0.2111436950146628</v>
       </c>
       <c r="I19">
-        <v>0.1060487038491752</v>
+        <v>0.1085043988269795</v>
       </c>
       <c r="J19">
-        <v>0.3880597014925373</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="K19">
-        <v>0.09112333071484682</v>
+        <v>0.09017595307917889</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01178318931657502</v>
+        <v>0.01319648093841642</v>
       </c>
       <c r="N19">
-        <v>0.0007855459544383347</v>
+        <v>0.0007331378299120235</v>
       </c>
       <c r="O19">
-        <v>0.06991358994501179</v>
+        <v>0.07038123167155426</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1044776119402985</v>
+        <v>0.1041055718475073</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Evansville_A.xlsx
+++ b/team_specific_matrix/Evansville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2114093959731544</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C2">
-        <v>0.5100671140939598</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01006711409395973</v>
+        <v>0.009868421052631578</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1711409395973154</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09731543624161074</v>
+        <v>0.09539473684210527</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01204819277108434</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C3">
-        <v>0.03012048192771084</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02409638554216868</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7530120481927711</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1807228915662651</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02857142857142857</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01224489795918367</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="E6">
-        <v>0.004081632653061225</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="F6">
-        <v>0.06122448979591837</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2408163265306122</v>
+        <v>0.2490118577075099</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00816326530612245</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1918367346938775</v>
+        <v>0.1897233201581028</v>
       </c>
       <c r="R6">
-        <v>0.09387755102040816</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S6">
-        <v>0.3591836734693877</v>
+        <v>0.3557312252964427</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09523809523809523</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02380952380952381</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="E7">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="F7">
-        <v>0.04761904761904762</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119047619047619</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1785714285714286</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="R7">
-        <v>0.07738095238095238</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="S7">
-        <v>0.4464285714285715</v>
+        <v>0.4463276836158192</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09188034188034189</v>
+        <v>0.08921161825726141</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="E8">
-        <v>0.002136752136752137</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="F8">
-        <v>0.05982905982905983</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0811965811965812</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01068376068376068</v>
+        <v>0.01037344398340249</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1858974358974359</v>
+        <v>0.1867219917012448</v>
       </c>
       <c r="R8">
-        <v>0.08547008547008547</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="S8">
-        <v>0.4636752136752137</v>
+        <v>0.4688796680497925</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09259259259259259</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02592592592592593</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
-        <v>0.003703703703703704</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="F9">
-        <v>0.05555555555555555</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07407407407407407</v>
+        <v>0.075</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.06296296296296296</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="S9">
-        <v>0.4851851851851852</v>
+        <v>0.4892857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1026022304832714</v>
+        <v>0.1020114942528736</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01338289962825279</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E10">
-        <v>0.0007434944237918215</v>
+        <v>0.0007183908045977011</v>
       </c>
       <c r="F10">
-        <v>0.07211895910780669</v>
+        <v>0.07112068965517242</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09814126394052045</v>
+        <v>0.09985632183908046</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02007434944237918</v>
+        <v>0.01939655172413793</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2423791821561338</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="R10">
-        <v>0.07732342007434945</v>
+        <v>0.07758620689655173</v>
       </c>
       <c r="S10">
-        <v>0.3732342007434944</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003703703703703704</v>
+        <v>0.00353356890459364</v>
       </c>
       <c r="G11">
-        <v>0.1185185185185185</v>
+        <v>0.1201413427561837</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1148148148148148</v>
+        <v>0.1130742049469965</v>
       </c>
       <c r="K11">
-        <v>0.1888888888888889</v>
+        <v>0.1908127208480565</v>
       </c>
       <c r="L11">
-        <v>0.5666666666666667</v>
+        <v>0.5653710247349824</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007407407407407408</v>
+        <v>0.007067137809187279</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7423312883435583</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1595092024539877</v>
+        <v>0.1588235294117647</v>
       </c>
       <c r="K12">
-        <v>0.0245398773006135</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="L12">
-        <v>0.05521472392638037</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01840490797546012</v>
+        <v>0.01764705882352941</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8387096774193549</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1290322580645161</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02164502164502164</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1601731601731602</v>
+        <v>0.160337552742616</v>
       </c>
       <c r="I15">
-        <v>0.08658008658008658</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="J15">
-        <v>0.3593073593073593</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="K15">
-        <v>0.04761904761904762</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008658008658008658</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04761904761904762</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2683982683982684</v>
+        <v>0.2658227848101266</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03571428571428571</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1479591836734694</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="I16">
-        <v>0.08673469387755102</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="J16">
-        <v>0.4744897959183674</v>
+        <v>0.472636815920398</v>
       </c>
       <c r="K16">
-        <v>0.08673469387755102</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02040816326530612</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="N16">
-        <v>0.00510204081632653</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="O16">
-        <v>0.05612244897959184</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08673469387755102</v>
+        <v>0.0845771144278607</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02209944751381215</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1657458563535912</v>
+        <v>0.1660714285714286</v>
       </c>
       <c r="I17">
-        <v>0.1141804788213628</v>
+        <v>0.1125</v>
       </c>
       <c r="J17">
-        <v>0.4475138121546962</v>
+        <v>0.4446428571428571</v>
       </c>
       <c r="K17">
-        <v>0.06998158379373849</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009208103130755065</v>
+        <v>0.0125</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07366482504604052</v>
+        <v>0.075</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09760589318600368</v>
+        <v>0.09642857142857143</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04123711340206185</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1391752577319588</v>
+        <v>0.1393034825870647</v>
       </c>
       <c r="I18">
-        <v>0.1185567010309278</v>
+        <v>0.1144278606965174</v>
       </c>
       <c r="J18">
-        <v>0.4175257731958763</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="K18">
-        <v>0.1134020618556701</v>
+        <v>0.1144278606965174</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02061855670103093</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="N18">
-        <v>0.005154639175257732</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="O18">
-        <v>0.05670103092783505</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08762886597938144</v>
+        <v>0.08955223880597014</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01466275659824047</v>
+        <v>0.0148936170212766</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2111436950146628</v>
+        <v>0.2099290780141844</v>
       </c>
       <c r="I19">
-        <v>0.1085043988269795</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="J19">
-        <v>0.3870967741935484</v>
+        <v>0.3858156028368794</v>
       </c>
       <c r="K19">
-        <v>0.09017595307917889</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01319648093841642</v>
+        <v>0.01347517730496454</v>
       </c>
       <c r="N19">
-        <v>0.0007331378299120235</v>
+        <v>0.0007092198581560284</v>
       </c>
       <c r="O19">
-        <v>0.07038123167155426</v>
+        <v>0.07021276595744681</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1041055718475073</v>
+        <v>0.1021276595744681</v>
       </c>
     </row>
   </sheetData>
